--- a/03_Results/04_04RE_SACPrevalenceLandCoverPanel.xlsx
+++ b/03_Results/04_04RE_SACPrevalenceLandCoverPanel.xlsx
@@ -44,94 +44,94 @@
     <t>Time Lag of Prevalence</t>
   </si>
   <si>
-    <t>-0.075118***</t>
-  </si>
-  <si>
-    <t>(0.004984)</t>
-  </si>
-  <si>
-    <t>-0.007915***</t>
-  </si>
-  <si>
-    <t>(0.002307)</t>
-  </si>
-  <si>
-    <t>-0.088922***</t>
-  </si>
-  <si>
-    <t>(0.005616)</t>
-  </si>
-  <si>
-    <t>0.089817***</t>
-  </si>
-  <si>
-    <t>(0.008599)</t>
-  </si>
-  <si>
-    <t>-0.06812***</t>
-  </si>
-  <si>
-    <t>(0.004502)</t>
-  </si>
-  <si>
-    <t>-0.641975***</t>
-  </si>
-  <si>
-    <t>(0.04687)</t>
-  </si>
-  <si>
-    <t>-0.067641***</t>
-  </si>
-  <si>
-    <t>(0.019792)</t>
-  </si>
-  <si>
-    <t>-0.759941***</t>
-  </si>
-  <si>
-    <t>(0.053392)</t>
-  </si>
-  <si>
-    <t>0.767594***</t>
-  </si>
-  <si>
-    <t>(0.077708)</t>
-  </si>
-  <si>
-    <t>-0.582162***</t>
-  </si>
-  <si>
-    <t>(0.042235)</t>
-  </si>
-  <si>
-    <t>-0.717093***</t>
-  </si>
-  <si>
-    <t>(0.051562)</t>
-  </si>
-  <si>
-    <t>-0.075556***</t>
-  </si>
-  <si>
-    <t>(0.02209)</t>
-  </si>
-  <si>
-    <t>-0.848863***</t>
-  </si>
-  <si>
-    <t>(0.058653)</t>
-  </si>
-  <si>
-    <t>0.857412***</t>
-  </si>
-  <si>
-    <t>(0.086047)</t>
-  </si>
-  <si>
-    <t>-0.650282***</t>
-  </si>
-  <si>
-    <t>(0.046471)</t>
+    <t>0.074928***</t>
+  </si>
+  <si>
+    <t>(0.00503)</t>
+  </si>
+  <si>
+    <t>-0.023987***</t>
+  </si>
+  <si>
+    <t>(0.007182)</t>
+  </si>
+  <si>
+    <t>-0.266258***</t>
+  </si>
+  <si>
+    <t>(0.01654)</t>
+  </si>
+  <si>
+    <t>0.268543***</t>
+  </si>
+  <si>
+    <t>(0.023367)</t>
+  </si>
+  <si>
+    <t>-0.068076***</t>
+  </si>
+  <si>
+    <t>(0.004417)</t>
+  </si>
+  <si>
+    <t>0.640949***</t>
+  </si>
+  <si>
+    <t>(0.047759)</t>
+  </si>
+  <si>
+    <t>-0.205187***</t>
+  </si>
+  <si>
+    <t>(0.061738)</t>
+  </si>
+  <si>
+    <t>-2.277629***</t>
+  </si>
+  <si>
+    <t>(0.160078)</t>
+  </si>
+  <si>
+    <t>2.297171***</t>
+  </si>
+  <si>
+    <t>(0.21224)</t>
+  </si>
+  <si>
+    <t>-0.582332***</t>
+  </si>
+  <si>
+    <t>(0.042491)</t>
+  </si>
+  <si>
+    <t>0.715876***</t>
+  </si>
+  <si>
+    <t>(0.052521)</t>
+  </si>
+  <si>
+    <t>-0.229173***</t>
+  </si>
+  <si>
+    <t>(0.068894)</t>
+  </si>
+  <si>
+    <t>-2.543887***</t>
+  </si>
+  <si>
+    <t>(0.175634)</t>
+  </si>
+  <si>
+    <t>2.565714***</t>
+  </si>
+  <si>
+    <t>(0.234801)</t>
+  </si>
+  <si>
+    <t>-0.650408***</t>
+  </si>
+  <si>
+    <t>(0.046665)</t>
   </si>
 </sst>
 </file>
